--- a/data/Amenanzas.xlsx
+++ b/data/Amenanzas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyu3m\Desktop\Espacio compartida\SDA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6a2ed62d12d53eb/Documents/GitHub/SDA_Ver3/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D742D447-B1B0-45F0-8DA3-17ABA2D33235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{D742D447-B1B0-45F0-8DA3-17ABA2D33235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE7853C-8CE5-42F2-B913-A2608C6D7FFF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="E" sheetId="6" state="hidden" r:id="rId1"/>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t>Servicios fiscales</t>
-  </si>
-  <si>
-    <t>ü</t>
   </si>
   <si>
     <t>no</t>
@@ -635,12 +632,15 @@
   <si>
     <t>En la medida que nuestros servicios incluyan opiniones o recomendaciones, se atenderá a lo que dispone el art 37.2 RLAC y será responsabilidad de la dirección decidir sobre su implantación, sin que auditor o sociedad de auditoría participe en el proceso de toma de decisiones, así como de su puesta en práctica.</t>
   </si>
+  <si>
+    <t>si</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,12 +745,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FFFF0000"/>
-      <name val="Wingdings"/>
-      <charset val="2"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="11"/>
@@ -822,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -834,8 +828,66 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -843,13 +895,43 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -858,11 +940,28 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -871,20 +970,52 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -895,98 +1026,107 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,7 +1604,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1477,7 +1617,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1490,7 +1630,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1501,55 +1641,55 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="113.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
+    <col min="1" max="1" width="113.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="2"/>
@@ -1559,8 +1699,8 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2"/>
@@ -1570,283 +1710,283 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="E11" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="F11" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="G11" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="11" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E12" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F12" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="9" t="s">
+      <c r="G12" s="34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="E13" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="G14" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="10" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="10" t="s">
+      <c r="E15" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G15" s="34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="10" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="E16" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F16" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="G16" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="10" t="s">
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="10" t="s">
+      <c r="E17" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="G17" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="10" t="s">
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="10" t="s">
+      <c r="G18" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="10" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="C19" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="E19" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="G19" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="10" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C20" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="10" t="s">
+      <c r="G20" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E21" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
@@ -1855,151 +1995,151 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-    </row>
-    <row r="25" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="21"/>
+      <c r="B25" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="33"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="21"/>
+    <row r="26" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26" s="33"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="21"/>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D27" s="33"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="21"/>
+    <row r="28" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D28" s="33"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="10" t="s">
-        <v>25</v>
+    <row r="29" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>25</v>
+    <row r="30" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" s="21"/>
-      <c r="C31" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="21"/>
+    <row r="31" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="33"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
+    <row r="32" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" s="21"/>
-      <c r="D33" s="10" t="s">
-        <v>25</v>
+    <row r="33" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33" t="s">
+        <v>145</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -2021,929 +2161,929 @@
   <dimension ref="A1:E65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" style="22" customWidth="1"/>
-    <col min="2" max="2" width="56.6640625" style="22" customWidth="1"/>
-    <col min="3" max="3" width="54.109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="67.33203125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="65.44140625" style="22" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="23"/>
+    <col min="1" max="1" width="18.28515625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="56.7109375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="54.140625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="67.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="65.42578125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="198" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:5" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="C3" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="32" t="s">
+      <c r="B4" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14"/>
+      <c r="C7" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14"/>
+      <c r="C10" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="97.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="E14" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A18" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" s="32" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="32" t="s">
+    </row>
+    <row r="24" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="14"/>
+    </row>
+    <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" s="14"/>
+    </row>
+    <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+    </row>
+    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="14"/>
+    </row>
+    <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33" s="14"/>
+    </row>
+    <row r="34" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+    </row>
+    <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="E35" s="14"/>
+    </row>
+    <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="D36" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="14"/>
+    </row>
+    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E39" s="14"/>
+    </row>
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="14"/>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="14"/>
+    </row>
+    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="D42" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E42" s="14"/>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E44" s="14"/>
+    </row>
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="14"/>
+    </row>
+    <row r="46" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="26" t="s">
+      <c r="C46" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="D46" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="E46" s="14"/>
+    </row>
+    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="26"/>
-    </row>
-    <row r="6" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="32" t="s">
+      <c r="E47" s="14"/>
+    </row>
+    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D48" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E48" s="14"/>
+    </row>
+    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="14"/>
+    </row>
+    <row r="50" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50" s="14"/>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E51" s="14"/>
+    </row>
+    <row r="52" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A52" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E52" s="14"/>
+    </row>
+    <row r="53" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="E53" s="14"/>
+    </row>
+    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A54" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54" s="14"/>
+    </row>
+    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="14"/>
+    </row>
+    <row r="56" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D56" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="14"/>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+    </row>
+    <row r="58" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A58" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E58" s="14"/>
+    </row>
+    <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A59" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" s="14"/>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="14"/>
+    </row>
+    <row r="61" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C61" s="14"/>
+      <c r="D61" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="62" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A62" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="14"/>
+      <c r="D62" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="14"/>
+    </row>
+    <row r="63" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="14"/>
+      <c r="D63" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="26"/>
-    </row>
-    <row r="7" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="D9" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="97.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A20" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="32"/>
-      <c r="E21" s="32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="26" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A23" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C24" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="26"/>
-    </row>
-    <row r="26" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="26" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" s="26"/>
-      <c r="D27" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E28" s="26"/>
-    </row>
-    <row r="29" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-    </row>
-    <row r="30" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-    </row>
-    <row r="31" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-    </row>
-    <row r="32" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A32" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E33" s="26"/>
-    </row>
-    <row r="34" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C34" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-    </row>
-    <row r="35" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B35" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="26"/>
-    </row>
-    <row r="36" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="26"/>
-    </row>
-    <row r="37" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="26"/>
-    </row>
-    <row r="38" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B38" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="26"/>
-    </row>
-    <row r="39" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E39" s="26"/>
-    </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="26"/>
-    </row>
-    <row r="41" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="26" t="s">
-        <v>112</v>
-      </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26" t="s">
-        <v>111</v>
-      </c>
-      <c r="E41" s="26"/>
-    </row>
-    <row r="42" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="E42" s="26"/>
-    </row>
-    <row r="43" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="26"/>
-    </row>
-    <row r="44" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E44" s="26"/>
-    </row>
-    <row r="45" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A45" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B45" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E45" s="26"/>
-    </row>
-    <row r="46" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A46" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B46" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E46" s="26"/>
-    </row>
-    <row r="47" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" s="26"/>
-    </row>
-    <row r="48" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B48" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="26" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E48" s="26"/>
-    </row>
-    <row r="49" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B49" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E49" s="26"/>
-    </row>
-    <row r="50" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="26"/>
-    </row>
-    <row r="51" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B51" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E51" s="26"/>
-    </row>
-    <row r="52" spans="1:5" ht="144" x14ac:dyDescent="0.3">
-      <c r="A52" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B52" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="C52" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="D52" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52" s="26"/>
-    </row>
-    <row r="53" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A53" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C53" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="D53" s="32" t="s">
-        <v>125</v>
-      </c>
-      <c r="E53" s="26"/>
-    </row>
-    <row r="54" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A54" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C54" s="26"/>
-      <c r="D54" s="32" t="s">
-        <v>126</v>
-      </c>
-      <c r="E54" s="26"/>
-    </row>
-    <row r="55" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="C55" s="26"/>
-      <c r="D55" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E55" s="26"/>
-    </row>
-    <row r="56" spans="1:5" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="D56" s="32" t="s">
-        <v>129</v>
-      </c>
-      <c r="E56" s="26"/>
-    </row>
-    <row r="57" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A57" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="C57" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-    </row>
-    <row r="58" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A58" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B58" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="C58" s="26" t="s">
-        <v>133</v>
-      </c>
-      <c r="D58" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="E58" s="26"/>
-    </row>
-    <row r="59" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A59" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B59" s="26" t="s">
-        <v>134</v>
-      </c>
-      <c r="C59" s="26"/>
-      <c r="D59" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="E59" s="26"/>
-    </row>
-    <row r="60" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A60" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B60" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="26"/>
-    </row>
-    <row r="61" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="32" t="s">
-        <v>137</v>
-      </c>
-      <c r="E61" s="26"/>
-    </row>
-    <row r="62" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A62" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B62" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="C62" s="26"/>
-      <c r="D62" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="E62" s="26"/>
-    </row>
-    <row r="63" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A63" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="B63" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C63" s="26"/>
-      <c r="D63" s="32" t="s">
+      <c r="D64" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E64" s="20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="A65" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="E63" s="26"/>
-    </row>
-    <row r="64" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A64" s="31" t="s">
+      <c r="B65" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="B64" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="D64" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E64" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A65" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="B65" s="32" t="s">
+      <c r="C65" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C65" s="32" t="s">
+      <c r="D65" s="20" t="s">
         <v>143</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="E65" s="20" t="s">
         <v>144</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2960,6 +3100,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<datasnipper xmlns="http://datasnipper" xmlMigrated="true" guid="99fc6147-b0db-4441-811c-b6f0a2a24dd9" revision="4"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<datasnipper xmlns="http://datasnipperlegacy" included="true" dataSnipperSheetDeleted="false" guid="ad4dc748-a3a5-44f2-bc18-7c903e2952e3" revision="3"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -2968,15 +3116,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<datasnipper xmlns="http://datasnipperlegacy" included="true" dataSnipperSheetDeleted="false" guid="ad4dc748-a3a5-44f2-bc18-7c903e2952e3" revision="3"/>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<datasnipper xmlns="http://datasnipper" xmlMigrated="true" guid="99fc6147-b0db-4441-811c-b6f0a2a24dd9" revision="4"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000E7261CF72476642A40D4FED8CA15217" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="be68b280b2351721927ac3118406fcaa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3090,16 +3236,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F36D14CA-F233-41F3-B8A2-6ED5CDCE67A9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEBA716-F43D-4138-B070-0F573AD2D4FF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://datasnipper"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3113,14 +3253,29 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BEBA716-F43D-4138-B070-0F573AD2D4FF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F36D14CA-F233-41F3-B8A2-6ED5CDCE67A9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://datasnipper"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51B31C97-DAB7-494C-A11A-4634D1995CD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28EA95D0-B72D-4060-A8B8-C37A2526E826}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3134,19 +3289,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51B31C97-DAB7-494C-A11A-4634D1995CD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>